--- a/Data/Library/Books_2021_12_20.xlsx
+++ b/Data/Library/Books_2021_12_20.xlsx
@@ -1154,10 +1154,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1172,6 +1172,14 @@
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1217,16 +1225,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1254,62 +1261,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1323,6 +1277,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -1333,6 +1294,36 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1354,8 +1345,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1382,7 +1382,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1394,7 +1424,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1406,7 +1436,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1418,55 +1526,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1478,91 +1550,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1646,15 +1646,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1687,26 +1678,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1735,11 +1718,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1751,10 +1751,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1763,133 +1763,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1912,13 +1912,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1970,10 +1970,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1982,19 +1982,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2354,7 +2354,7 @@
   <dimension ref="A1:H79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="G1" sqref="A$1:G$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -4338,6 +4338,7 @@
     <hyperlink ref="D47" r:id="rId2" display="机械工业出版社"/>
     <hyperlink ref="F4" r:id="rId3" display="https://lib.ecust.edu.cn/zh-hans/book/748571"/>
     <hyperlink ref="F58" r:id="rId4" display="https://lib.ecust.edu.cn/zh-hans/book/780804"/>
+    <hyperlink ref="F3" r:id="rId5" display="https://lib.ecust.edu.cn/zh-hans/book/642753"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
